--- a/atoutcom-users/app/public/uploads/Export_Excel/Export_Atoutcom_global.xlsx
+++ b/atoutcom-users/app/public/uploads/Export_Excel/Export_Atoutcom_global.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Export du 2020-01-27" sheetId="1" r:id="rId4"/>
+    <sheet name="Export du 03-03-20" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>PERIODE</t>
   </si>
@@ -32,6 +32,9 @@
     <t>INTITULÉ</t>
   </si>
   <si>
+    <t>SPECIALITÉ</t>
+  </si>
+  <si>
     <t>ANNÉE</t>
   </si>
   <si>
@@ -47,46 +50,61 @@
     <t>MontantTTC</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Evenement 1</t>
-  </si>
-  <si>
-    <t>30-11-2019</t>
-  </si>
-  <si>
-    <t>Sponsor 1</t>
-  </si>
-  <si>
-    <t>Sponsor 2</t>
-  </si>
-  <si>
-    <t>Sponsor 3</t>
-  </si>
-  <si>
-    <t>Sponsor 4</t>
-  </si>
-  <si>
-    <t>Sponsor 5</t>
-  </si>
-  <si>
-    <t>01-12-2019</t>
-  </si>
-  <si>
-    <t>Sponsor 6</t>
-  </si>
-  <si>
-    <t>Sponsor 7</t>
-  </si>
-  <si>
-    <t>Sponsor 8</t>
-  </si>
-  <si>
-    <t>02-12-2019</t>
-  </si>
-  <si>
-    <t>Sponsor 10</t>
+    <t>MontantNet€</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ACCOMPTE</t>
+  </si>
+  <si>
+    <t>RESTEDÛ</t>
+  </si>
+  <si>
+    <t>PAYÉ</t>
+  </si>
+  <si>
+    <t>ENCAISSÉ</t>
+  </si>
+  <si>
+    <t>Ak_DateReglement</t>
+  </si>
+  <si>
+    <t>COMMENTAIRE</t>
+  </si>
+  <si>
+    <t>CONCERNE</t>
+  </si>
+  <si>
+    <t>12020/2802</t>
+  </si>
+  <si>
+    <t>02/03/2020</t>
+  </si>
+  <si>
+    <t>BARREAULT JULIEN</t>
+  </si>
+  <si>
+    <t>11e Journée Nationale du GEDO</t>
+  </si>
+  <si>
+    <t>Pédiatrie</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>22020/2802</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Cardiologie</t>
+  </si>
+  <si>
+    <t>sponsor</t>
   </si>
 </sst>
 </file>
@@ -437,15 +455,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:S1"/>
+      <selection activeCell="A1" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,363 +516,153 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3">
+        <v>41.67</v>
+      </c>
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-      <c r="G3">
-        <v>417</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
       <c r="J3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2019</v>
-      </c>
-      <c r="G4">
-        <v>417</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
-      <c r="G5">
-        <v>250</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-      <c r="G6">
-        <v>417</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>2019</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>2019</v>
-      </c>
-      <c r="G7">
-        <v>417</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>2019</v>
-      </c>
-      <c r="G8">
-        <v>250</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>2019</v>
-      </c>
-      <c r="G9">
-        <v>750</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>180</v>
-      </c>
-      <c r="J9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>2019</v>
-      </c>
-      <c r="G10">
-        <v>667</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>160</v>
-      </c>
-      <c r="J10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>2019</v>
-      </c>
-      <c r="G11">
-        <v>167</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>2019</v>
-      </c>
-      <c r="G12">
-        <v>417</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <v>500</v>
+      <c r="T3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
